--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,72 +519,72 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.62628990565144</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H2">
-        <v>1.62628990565144</v>
+        <v>0.488581</v>
       </c>
       <c r="I2">
-        <v>0.79355006042811</v>
+        <v>0.06904471801498467</v>
       </c>
       <c r="J2">
-        <v>0.79355006042811</v>
+        <v>0.06904471801498467</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>10.7354211281076</v>
+        <v>0.132884</v>
       </c>
       <c r="N2">
-        <v>10.7354211281076</v>
+        <v>0.398652</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01195569974366677</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01195569974366677</v>
       </c>
       <c r="Q2">
-        <v>17.45890701355858</v>
+        <v>0.02164153253466667</v>
       </c>
       <c r="R2">
-        <v>17.45890701355858</v>
+        <v>0.194773792812</v>
       </c>
       <c r="S2">
-        <v>0.79355006042811</v>
+        <v>0.0008254779174732964</v>
       </c>
       <c r="T2">
-        <v>0.79355006042811</v>
+        <v>0.0008254779174732964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,49 +593,483 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.423095491375784</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H3">
-        <v>0.423095491375784</v>
+        <v>0.488581</v>
       </c>
       <c r="I3">
-        <v>0.2064499395718899</v>
+        <v>0.06904471801498467</v>
       </c>
       <c r="J3">
-        <v>0.2064499395718899</v>
+        <v>0.06904471801498467</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>10.7354211281076</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
-        <v>10.7354211281076</v>
+        <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006615533976389704</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.006615533976389703</v>
       </c>
       <c r="Q3">
-        <v>4.542108277322658</v>
+        <v>0.01197506602322222</v>
       </c>
       <c r="R3">
-        <v>4.542108277322658</v>
+        <v>0.107775594209</v>
       </c>
       <c r="S3">
-        <v>0.2064499395718899</v>
+        <v>0.0004567676779183774</v>
       </c>
       <c r="T3">
-        <v>0.2064499395718899</v>
+        <v>0.0004567676779183773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1628603333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.488581</v>
+      </c>
+      <c r="I4">
+        <v>0.06904471801498467</v>
+      </c>
+      <c r="J4">
+        <v>0.06904471801498467</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10.908285</v>
+      </c>
+      <c r="N4">
+        <v>32.724855</v>
+      </c>
+      <c r="O4">
+        <v>0.9814287662799436</v>
+      </c>
+      <c r="P4">
+        <v>0.9814287662799435</v>
+      </c>
+      <c r="Q4">
+        <v>1.776526931195</v>
+      </c>
+      <c r="R4">
+        <v>15.988742380755</v>
+      </c>
+      <c r="S4">
+        <v>0.067762472419593</v>
+      </c>
+      <c r="T4">
+        <v>0.06776247241959299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.769244333333333</v>
+      </c>
+      <c r="H5">
+        <v>5.307733</v>
+      </c>
+      <c r="I5">
+        <v>0.7500720009247772</v>
+      </c>
+      <c r="J5">
+        <v>0.7500720009247773</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.132884</v>
+      </c>
+      <c r="N5">
+        <v>0.398652</v>
+      </c>
+      <c r="O5">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="P5">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="Q5">
+        <v>0.2351042639906666</v>
+      </c>
+      <c r="R5">
+        <v>2.115938375916</v>
+      </c>
+      <c r="S5">
+        <v>0.008967635629187978</v>
+      </c>
+      <c r="T5">
+        <v>0.008967635629187978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.769244333333333</v>
+      </c>
+      <c r="H6">
+        <v>5.307733</v>
+      </c>
+      <c r="I6">
+        <v>0.7500720009247772</v>
+      </c>
+      <c r="J6">
+        <v>0.7500720009247773</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.07352966666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.220589</v>
+      </c>
+      <c r="O6">
+        <v>0.006615533976389704</v>
+      </c>
+      <c r="P6">
+        <v>0.006615533976389703</v>
+      </c>
+      <c r="Q6">
+        <v>0.1300919460818889</v>
+      </c>
+      <c r="R6">
+        <v>1.170827514737</v>
+      </c>
+      <c r="S6">
+        <v>0.004962126806856473</v>
+      </c>
+      <c r="T6">
+        <v>0.004962126806856473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.769244333333333</v>
+      </c>
+      <c r="H7">
+        <v>5.307733</v>
+      </c>
+      <c r="I7">
+        <v>0.7500720009247772</v>
+      </c>
+      <c r="J7">
+        <v>0.7500720009247773</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.908285</v>
+      </c>
+      <c r="N7">
+        <v>32.724855</v>
+      </c>
+      <c r="O7">
+        <v>0.9814287662799436</v>
+      </c>
+      <c r="P7">
+        <v>0.9814287662799435</v>
+      </c>
+      <c r="Q7">
+        <v>19.299421422635</v>
+      </c>
+      <c r="R7">
+        <v>173.694792803715</v>
+      </c>
+      <c r="S7">
+        <v>0.7361422384887328</v>
+      </c>
+      <c r="T7">
+        <v>0.7361422384887328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4266613333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.279984</v>
+      </c>
+      <c r="I8">
+        <v>0.180883281060238</v>
+      </c>
+      <c r="J8">
+        <v>0.180883281060238</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.132884</v>
+      </c>
+      <c r="N8">
+        <v>0.398652</v>
+      </c>
+      <c r="O8">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="P8">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="Q8">
+        <v>0.05669646461866667</v>
+      </c>
+      <c r="R8">
+        <v>0.510268181568</v>
+      </c>
+      <c r="S8">
+        <v>0.002162586197005491</v>
+      </c>
+      <c r="T8">
+        <v>0.002162586197005491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4266613333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.279984</v>
+      </c>
+      <c r="I9">
+        <v>0.180883281060238</v>
+      </c>
+      <c r="J9">
+        <v>0.180883281060238</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07352966666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.220589</v>
+      </c>
+      <c r="O9">
+        <v>0.006615533976389704</v>
+      </c>
+      <c r="P9">
+        <v>0.006615533976389703</v>
+      </c>
+      <c r="Q9">
+        <v>0.03137226561955556</v>
+      </c>
+      <c r="R9">
+        <v>0.282350390576</v>
+      </c>
+      <c r="S9">
+        <v>0.001196639491614853</v>
+      </c>
+      <c r="T9">
+        <v>0.001196639491614853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4266613333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.279984</v>
+      </c>
+      <c r="I10">
+        <v>0.180883281060238</v>
+      </c>
+      <c r="J10">
+        <v>0.180883281060238</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.908285</v>
+      </c>
+      <c r="N10">
+        <v>32.724855</v>
+      </c>
+      <c r="O10">
+        <v>0.9814287662799436</v>
+      </c>
+      <c r="P10">
+        <v>0.9814287662799435</v>
+      </c>
+      <c r="Q10">
+        <v>4.65414342248</v>
+      </c>
+      <c r="R10">
+        <v>41.88729080232</v>
+      </c>
+      <c r="S10">
+        <v>0.1775240553716176</v>
+      </c>
+      <c r="T10">
+        <v>0.1775240553716177</v>
       </c>
     </row>
   </sheetData>
